--- a/biology/Origine et évolution du vivant/Unikonta/Unikonta.xlsx
+++ b/biology/Origine et évolution du vivant/Unikonta/Unikonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Unicontes
-Les  Unicontes[note 1] (Unikonta) sont un clade d'organismes eucaryotes possédant à l'origine des cellules avec un unique flagelle postérieur[1],[note 2]. 
+Les  Unicontes[note 1] (Unikonta) sont un clade d'organismes eucaryotes possédant à l'origine des cellules avec un unique flagelle postérieur,[note 2]. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Unikonta et Bikonta</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches actuelles suggèrent que les Opisthokontes et les Amoebozoaires ont pour ancêtres des organismes unicellulaires unicontes, et le clade regroupant Amoebozoaires et Opisthokontes est de ce fait nommé Unikonta. 
-De même, des unicellulaires bicontes (eucaryotes possédant deux flagelles) sont les ancêtres des Archaeplastida (Plantae), Excavata et Chromalveolata (incluant Rhizaria), et l'ensemble de ces taxons est réuni dans le taxon des Bikonta. Ce taxon a été proposé, en tant que clade, par le professeur de biologie Thomas Cavalier-Smith[2].
-Les organismes unicontes possèdent également une triple fusion de gènes n'existant pas chez les bicontes, ainsi qu'un unique centriole (quelques unicontes possèdent 2 centrioles mais leur origine est différente de celles des bicontes, indiquant ici une convergence évolutive)[3]. Les trois gènes ayant fusionné chez les unicontes, mais pas chez les procaryotes ni chez les bicontes, codent des enzymes intervenant dans la synthèse de nucléotides pyrimidine : carbamyl phosphate synthase, dihydroorotase, aspartate carbamyltransferase (Cavalier-Smith 2003). Il semble probable que cette triple fusion soit le résultat de 2 doubles fusions successives, un événement rare dans l'évolution et qui a peu de chances d'être réversible. Cette situation est en faveur de la théorie proposant un ancêtre commun aux Opisthocontes et aux Amoebozoa.
+De même, des unicellulaires bicontes (eucaryotes possédant deux flagelles) sont les ancêtres des Archaeplastida (Plantae), Excavata et Chromalveolata (incluant Rhizaria), et l'ensemble de ces taxons est réuni dans le taxon des Bikonta. Ce taxon a été proposé, en tant que clade, par le professeur de biologie Thomas Cavalier-Smith.
+Les organismes unicontes possèdent également une triple fusion de gènes n'existant pas chez les bicontes, ainsi qu'un unique centriole (quelques unicontes possèdent 2 centrioles mais leur origine est différente de celles des bicontes, indiquant ici une convergence évolutive). Les trois gènes ayant fusionné chez les unicontes, mais pas chez les procaryotes ni chez les bicontes, codent des enzymes intervenant dans la synthèse de nucléotides pyrimidine : carbamyl phosphate synthase, dihydroorotase, aspartate carbamyltransferase (Cavalier-Smith 2003). Il semble probable que cette triple fusion soit le résultat de 2 doubles fusions successives, un événement rare dans l'évolution et qui a peu de chances d'être réversible. Cette situation est en faveur de la théorie proposant un ancêtre commun aux Opisthocontes et aux Amoebozoa.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme selon les études de Cavalier-Smith et Torruella[4],[5],[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme selon les études de Cavalier-Smith et Torruella :
 </t>
         </is>
       </c>
